--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B9E443-6A67-44E9-9F45-22D075F102E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC294FA4-C7B0-4748-853B-9B2A3F88AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,18 @@
   <si>
     <t>DEU</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +408,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +573,14 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2493,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DAE397-A5C8-21C8-228B-08BE404F48AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2878,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +2999,7 @@
         <v>682.33268039556629</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3007,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>9.8299999999999998E-2</v>
@@ -3377,7 +3473,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>91.362100000000012</v>
@@ -3406,8 +3502,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>46.334200000000003</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="22">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="S36" s="22">
+        <v>26.114999999999998</v>
+      </c>
+      <c r="T36" s="22">
+        <v>28.215</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="24">
+        <v>12.7</v>
+      </c>
+      <c r="S37" s="24">
+        <v>15.3</v>
+      </c>
+      <c r="T37" s="24">
+        <v>15.6</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
